--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_biomass.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_biomass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34E1E24-A22C-7C4A-90C2-CB0691ABF737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E0716B-7D40-7F44-9FF5-12D7F3DC4084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="77">
   <si>
     <t>Name:</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>capacity_to_activity</t>
+  </si>
+  <si>
+    <t>GW/TWh</t>
   </si>
 </sst>
 </file>
@@ -679,11 +685,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L429"/>
+  <dimension ref="A1:L430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -854,19 +860,18 @@
       <c r="B10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="C10" t="s">
+        <v>75</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -876,16 +881,16 @@
         <v>41</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -897,22 +902,16 @@
         <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I12" t="s">
         <v>43</v>
-      </c>
-      <c r="J12" t="s">
-        <v>68</v>
       </c>
       <c r="K12" s="2"/>
     </row>
@@ -924,22 +923,22 @@
         <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>57.6</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I13" t="s">
         <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -951,19 +950,22 @@
         <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>57.6</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
         <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -975,20 +977,21 @@
         <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>0.88</v>
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
       </c>
       <c r="I15" t="s">
         <v>43</v>
       </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -998,21 +1001,20 @@
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>0.6</v>
+        <v>0.88</v>
       </c>
       <c r="I16" t="s">
         <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" s="2"/>
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1021,30 +1023,22 @@
       <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G17">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>42</v>
+        <v>0.6</v>
       </c>
       <c r="I17" t="s">
         <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" t="s">
-        <v>45</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1060,7 +1054,7 @@
         <v>39</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -1092,10 +1086,10 @@
         <v>39</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
         <v>42</v>
@@ -1124,10 +1118,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H20" t="s">
         <v>42</v>
@@ -1156,10 +1150,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H21" t="s">
         <v>42</v>
@@ -1188,10 +1182,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
         <v>42</v>
@@ -1220,10 +1214,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H23" t="s">
         <v>42</v>
@@ -1252,10 +1246,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
         <v>42</v>
@@ -1284,10 +1278,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G25">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
         <v>42</v>
@@ -1316,7 +1310,7 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G26">
         <v>13</v>
@@ -1348,10 +1342,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
         <v>42</v>
@@ -1380,7 +1374,7 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G28">
         <v>14</v>
@@ -1412,10 +1406,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G29">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
         <v>42</v>
@@ -1444,10 +1438,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G30">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
         <v>42</v>
@@ -1476,10 +1470,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G31">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
         <v>42</v>
@@ -1508,10 +1502,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G32">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H32" t="s">
         <v>42</v>
@@ -1540,10 +1534,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G33">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
         <v>42</v>
@@ -1572,10 +1566,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G34">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="H34" t="s">
         <v>42</v>
@@ -1604,10 +1598,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G35">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s">
         <v>42</v>
@@ -1636,10 +1630,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G36">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="H36" t="s">
         <v>42</v>
@@ -1668,10 +1662,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G37">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="H37" t="s">
         <v>42</v>
@@ -1700,10 +1694,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G38">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="H38" t="s">
         <v>42</v>
@@ -1732,10 +1726,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G39">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="H39" t="s">
         <v>42</v>
@@ -1764,10 +1758,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G40">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="H40" t="s">
         <v>42</v>
@@ -1796,10 +1790,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G41">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H41" t="s">
         <v>42</v>
@@ -1828,10 +1822,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G42">
-        <v>184</v>
+        <v>273</v>
       </c>
       <c r="H42" t="s">
         <v>42</v>
@@ -1860,10 +1854,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G43">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
@@ -1892,10 +1886,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G44">
-        <v>322</v>
+        <v>223</v>
       </c>
       <c r="H44" t="s">
         <v>42</v>
@@ -1924,10 +1918,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G45">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="H45" t="s">
         <v>42</v>
@@ -1956,10 +1950,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G46">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="H46" t="s">
         <v>42</v>
@@ -1982,25 +1976,28 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G47">
-        <v>3480</v>
+        <v>313</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I47" t="s">
         <v>43</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="L47" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2017,7 +2014,7 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G48">
         <v>3480</v>
@@ -2046,7 +2043,7 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G49">
         <v>3480</v>
@@ -2075,7 +2072,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G50">
         <v>3480</v>
@@ -2104,7 +2101,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G51">
         <v>3480</v>
@@ -2133,7 +2130,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G52">
         <v>3480</v>
@@ -2145,10 +2142,7 @@
         <v>43</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
-      </c>
-      <c r="L52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2165,10 +2159,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G53">
-        <v>11180</v>
+        <v>3480</v>
       </c>
       <c r="H53" t="s">
         <v>46</v>
@@ -2197,10 +2191,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G54">
-        <v>13900</v>
+        <v>11180</v>
       </c>
       <c r="H54" t="s">
         <v>46</v>
@@ -2229,10 +2223,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G55">
-        <v>15650</v>
+        <v>13900</v>
       </c>
       <c r="H55" t="s">
         <v>46</v>
@@ -2261,7 +2255,7 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G56">
         <v>15650</v>
@@ -2293,7 +2287,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G57">
         <v>15650</v>
@@ -2325,10 +2319,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G58">
-        <v>15550</v>
+        <v>15650</v>
       </c>
       <c r="H58" t="s">
         <v>46</v>
@@ -2357,10 +2351,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G59">
-        <v>9876</v>
+        <v>15550</v>
       </c>
       <c r="H59" t="s">
         <v>46</v>
@@ -2389,10 +2383,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G60">
-        <v>10211</v>
+        <v>9876</v>
       </c>
       <c r="H60" t="s">
         <v>46</v>
@@ -2421,10 +2415,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G61">
-        <v>10272</v>
+        <v>10211</v>
       </c>
       <c r="H61" t="s">
         <v>46</v>
@@ -2453,10 +2447,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G62">
-        <v>10139</v>
+        <v>10272</v>
       </c>
       <c r="H62" t="s">
         <v>46</v>
@@ -2485,10 +2479,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G63">
-        <v>15877</v>
+        <v>10139</v>
       </c>
       <c r="H63" t="s">
         <v>46</v>
@@ -2517,10 +2511,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G64">
-        <v>54394</v>
+        <v>15877</v>
       </c>
       <c r="H64" t="s">
         <v>46</v>
@@ -2549,10 +2543,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G65">
-        <v>116972</v>
+        <v>54394</v>
       </c>
       <c r="H65" t="s">
         <v>46</v>
@@ -2581,7 +2575,7 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G66">
         <v>116972</v>
@@ -2613,10 +2607,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G67">
-        <v>191385</v>
+        <v>116972</v>
       </c>
       <c r="H67" t="s">
         <v>46</v>
@@ -2645,7 +2639,7 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G68">
         <v>191385</v>
@@ -2677,10 +2671,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G69">
-        <v>221385</v>
+        <v>191385</v>
       </c>
       <c r="H69" t="s">
         <v>46</v>
@@ -2709,10 +2703,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G70">
-        <v>222385</v>
+        <v>221385</v>
       </c>
       <c r="H70" t="s">
         <v>46</v>
@@ -2741,7 +2735,7 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G71">
         <v>222385</v>
@@ -2773,10 +2767,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G72">
-        <v>227635</v>
+        <v>222385</v>
       </c>
       <c r="H72" t="s">
         <v>46</v>
@@ -2805,10 +2799,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G73">
-        <v>214635</v>
+        <v>227635</v>
       </c>
       <c r="H73" t="s">
         <v>46</v>
@@ -2837,10 +2831,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G74">
-        <v>220985</v>
+        <v>214635</v>
       </c>
       <c r="H74" t="s">
         <v>46</v>
@@ -2869,10 +2863,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G75">
-        <v>226782</v>
+        <v>220985</v>
       </c>
       <c r="H75" t="s">
         <v>46</v>
@@ -2901,10 +2895,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G76">
-        <v>263892</v>
+        <v>226782</v>
       </c>
       <c r="H76" t="s">
         <v>46</v>
@@ -2927,16 +2921,16 @@
         <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>263892</v>
       </c>
       <c r="H77" t="s">
         <v>46</v>
@@ -2948,7 +2942,7 @@
         <v>48</v>
       </c>
       <c r="L77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2965,7 +2959,7 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2997,7 +2991,7 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -3029,7 +3023,7 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3061,7 +3055,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3093,10 +3087,10 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G82">
-        <v>3480</v>
+        <v>0</v>
       </c>
       <c r="H82" t="s">
         <v>46</v>
@@ -3125,10 +3119,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G83">
-        <v>7700</v>
+        <v>3480</v>
       </c>
       <c r="H83" t="s">
         <v>46</v>
@@ -3157,10 +3151,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G84">
-        <v>2720</v>
+        <v>7700</v>
       </c>
       <c r="H84" t="s">
         <v>46</v>
@@ -3189,10 +3183,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G85">
-        <v>1750</v>
+        <v>2720</v>
       </c>
       <c r="H85" t="s">
         <v>46</v>
@@ -3221,10 +3215,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="H86" t="s">
         <v>46</v>
@@ -3253,7 +3247,7 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3285,7 +3279,7 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3317,7 +3311,7 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3349,10 +3343,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G90">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="H90" t="s">
         <v>46</v>
@@ -3381,10 +3375,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G91">
-        <v>61</v>
+        <v>335</v>
       </c>
       <c r="H91" t="s">
         <v>46</v>
@@ -3413,10 +3407,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H92" t="s">
         <v>46</v>
@@ -3445,10 +3439,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G93">
-        <v>5738</v>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
         <v>46</v>
@@ -3477,10 +3471,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G94">
-        <v>38517</v>
+        <v>5738</v>
       </c>
       <c r="H94" t="s">
         <v>46</v>
@@ -3509,10 +3503,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G95">
-        <v>62578</v>
+        <v>38517</v>
       </c>
       <c r="H95" t="s">
         <v>46</v>
@@ -3541,10 +3535,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>62578</v>
       </c>
       <c r="H96" t="s">
         <v>46</v>
@@ -3573,10 +3567,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G97">
-        <v>74413</v>
+        <v>0</v>
       </c>
       <c r="H97" t="s">
         <v>46</v>
@@ -3605,10 +3599,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>74413</v>
       </c>
       <c r="H98" t="s">
         <v>46</v>
@@ -3637,10 +3631,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G99">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H99" t="s">
         <v>46</v>
@@ -3669,10 +3663,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G100">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="H100" t="s">
         <v>46</v>
@@ -3701,10 +3695,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H101" t="s">
         <v>46</v>
@@ -3733,10 +3727,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G102">
-        <v>5250</v>
+        <v>0</v>
       </c>
       <c r="H102" t="s">
         <v>46</v>
@@ -3765,10 +3759,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="H103" t="s">
         <v>46</v>
@@ -3797,10 +3791,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G104">
-        <v>6350</v>
+        <v>0</v>
       </c>
       <c r="H104" t="s">
         <v>46</v>
@@ -3829,10 +3823,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G105">
-        <v>5797</v>
+        <v>6350</v>
       </c>
       <c r="H105" t="s">
         <v>46</v>
@@ -3861,10 +3855,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G106">
-        <v>37110</v>
+        <v>5797</v>
       </c>
       <c r="H106" t="s">
         <v>46</v>
@@ -3887,16 +3881,16 @@
         <v>41</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>39</v>
       </c>
       <c r="E107">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>37110</v>
       </c>
       <c r="H107" t="s">
         <v>46</v>
@@ -3925,7 +3919,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3957,7 +3951,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3989,7 +3983,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -4021,7 +4015,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4053,7 +4047,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4085,7 +4079,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4117,7 +4111,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4149,7 +4143,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4181,7 +4175,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4213,7 +4207,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4245,10 +4239,10 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G118">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H118" t="s">
         <v>46</v>
@@ -4277,10 +4271,10 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G119">
-        <v>5674</v>
+        <v>100</v>
       </c>
       <c r="H119" t="s">
         <v>46</v>
@@ -4309,10 +4303,10 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>5674</v>
       </c>
       <c r="H120" t="s">
         <v>46</v>
@@ -4341,7 +4335,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4373,10 +4367,10 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G122">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="H122" t="s">
         <v>46</v>
@@ -4405,10 +4399,10 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="H123" t="s">
         <v>46</v>
@@ -4437,7 +4431,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4469,7 +4463,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4501,7 +4495,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4533,7 +4527,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4565,7 +4559,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4597,7 +4591,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4629,7 +4623,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4661,7 +4655,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4693,7 +4687,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4725,10 +4719,10 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G133">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="H133" t="s">
         <v>46</v>
@@ -4757,10 +4751,10 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="H134" t="s">
         <v>46</v>
@@ -4789,7 +4783,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4821,7 +4815,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4847,16 +4841,28 @@
         <v>41</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
         <v>39</v>
       </c>
       <c r="E137">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>46</v>
       </c>
       <c r="I137" t="s">
         <v>43</v>
+      </c>
+      <c r="J137" t="s">
+        <v>48</v>
+      </c>
+      <c r="L137" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4873,7 +4879,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I138" t="s">
         <v>43</v>
@@ -4893,7 +4899,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I139" t="s">
         <v>43</v>
@@ -4913,7 +4919,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I140" t="s">
         <v>43</v>
@@ -4933,7 +4939,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I141" t="s">
         <v>43</v>
@@ -4953,7 +4959,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I142" t="s">
         <v>43</v>
@@ -4973,7 +4979,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I143" t="s">
         <v>43</v>
@@ -4993,7 +4999,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I144" t="s">
         <v>43</v>
@@ -5013,7 +5019,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I145" t="s">
         <v>43</v>
@@ -5033,7 +5039,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I146" t="s">
         <v>43</v>
@@ -5053,7 +5059,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I147" t="s">
         <v>43</v>
@@ -5073,7 +5079,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I148" t="s">
         <v>43</v>
@@ -5093,7 +5099,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I149" t="s">
         <v>43</v>
@@ -5113,7 +5119,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I150" t="s">
         <v>43</v>
@@ -5133,7 +5139,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I151" t="s">
         <v>43</v>
@@ -5153,7 +5159,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I152" t="s">
         <v>43</v>
@@ -5173,7 +5179,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I153" t="s">
         <v>43</v>
@@ -5193,7 +5199,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I154" t="s">
         <v>43</v>
@@ -5213,7 +5219,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I155" t="s">
         <v>43</v>
@@ -5233,7 +5239,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I156" t="s">
         <v>43</v>
@@ -5253,7 +5259,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I157" t="s">
         <v>43</v>
@@ -5273,7 +5279,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I158" t="s">
         <v>43</v>
@@ -5293,7 +5299,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I159" t="s">
         <v>43</v>
@@ -5313,7 +5319,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I160" t="s">
         <v>43</v>
@@ -5333,7 +5339,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I161" t="s">
         <v>43</v>
@@ -5353,7 +5359,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I162" t="s">
         <v>43</v>
@@ -5373,7 +5379,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I163" t="s">
         <v>43</v>
@@ -5393,7 +5399,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I164" t="s">
         <v>43</v>
@@ -5413,22 +5419,10 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2018</v>
-      </c>
-      <c r="G165">
-        <v>500</v>
-      </c>
-      <c r="H165" t="s">
-        <v>54</v>
+        <v>2017</v>
       </c>
       <c r="I165" t="s">
         <v>43</v>
-      </c>
-      <c r="J165" t="s">
-        <v>55</v>
-      </c>
-      <c r="L165" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -5445,10 +5439,22 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G166">
+        <v>500</v>
+      </c>
+      <c r="H166" t="s">
+        <v>54</v>
       </c>
       <c r="I166" t="s">
         <v>43</v>
+      </c>
+      <c r="J166" t="s">
+        <v>55</v>
+      </c>
+      <c r="L166" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5459,13 +5465,13 @@
         <v>41</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
         <v>39</v>
       </c>
       <c r="E167">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I167" t="s">
         <v>43</v>
@@ -5485,7 +5491,7 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I168" t="s">
         <v>43</v>
@@ -5505,7 +5511,7 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I169" t="s">
         <v>43</v>
@@ -5525,7 +5531,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I170" t="s">
         <v>43</v>
@@ -5545,7 +5551,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I171" t="s">
         <v>43</v>
@@ -5565,7 +5571,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I172" t="s">
         <v>43</v>
@@ -5585,7 +5591,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I173" t="s">
         <v>43</v>
@@ -5605,7 +5611,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I174" t="s">
         <v>43</v>
@@ -5625,7 +5631,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I175" t="s">
         <v>43</v>
@@ -5645,7 +5651,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I176" t="s">
         <v>43</v>
@@ -5665,7 +5671,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I177" t="s">
         <v>43</v>
@@ -5685,7 +5691,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I178" t="s">
         <v>43</v>
@@ -5705,7 +5711,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I179" t="s">
         <v>43</v>
@@ -5725,7 +5731,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I180" t="s">
         <v>43</v>
@@ -5745,7 +5751,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I181" t="s">
         <v>43</v>
@@ -5765,7 +5771,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I182" t="s">
         <v>43</v>
@@ -5785,7 +5791,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I183" t="s">
         <v>43</v>
@@ -5805,7 +5811,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I184" t="s">
         <v>43</v>
@@ -5825,7 +5831,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I185" t="s">
         <v>43</v>
@@ -5845,7 +5851,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I186" t="s">
         <v>43</v>
@@ -5865,7 +5871,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I187" t="s">
         <v>43</v>
@@ -5885,7 +5891,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I188" t="s">
         <v>43</v>
@@ -5905,7 +5911,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I189" t="s">
         <v>43</v>
@@ -5925,7 +5931,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I190" t="s">
         <v>43</v>
@@ -5945,7 +5951,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I191" t="s">
         <v>43</v>
@@ -5965,7 +5971,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I192" t="s">
         <v>43</v>
@@ -5985,7 +5991,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I193" t="s">
         <v>43</v>
@@ -6005,7 +6011,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I194" t="s">
         <v>43</v>
@@ -6025,22 +6031,10 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2018</v>
-      </c>
-      <c r="G195">
-        <v>4444</v>
-      </c>
-      <c r="H195" t="s">
-        <v>54</v>
+        <v>2017</v>
       </c>
       <c r="I195" t="s">
         <v>43</v>
-      </c>
-      <c r="J195" t="s">
-        <v>55</v>
-      </c>
-      <c r="L195" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -6057,10 +6051,22 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G196">
+        <v>4444</v>
+      </c>
+      <c r="H196" t="s">
+        <v>54</v>
       </c>
       <c r="I196" t="s">
         <v>43</v>
+      </c>
+      <c r="J196" t="s">
+        <v>55</v>
+      </c>
+      <c r="L196" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -6071,13 +6077,13 @@
         <v>41</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
         <v>39</v>
       </c>
       <c r="E197">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I197" t="s">
         <v>43</v>
@@ -6097,7 +6103,7 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I198" t="s">
         <v>43</v>
@@ -6117,7 +6123,7 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I199" t="s">
         <v>43</v>
@@ -6137,7 +6143,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I200" t="s">
         <v>43</v>
@@ -6157,7 +6163,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I201" t="s">
         <v>43</v>
@@ -6177,7 +6183,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I202" t="s">
         <v>43</v>
@@ -6197,7 +6203,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I203" t="s">
         <v>43</v>
@@ -6217,7 +6223,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I204" t="s">
         <v>43</v>
@@ -6237,7 +6243,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I205" t="s">
         <v>43</v>
@@ -6257,7 +6263,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I206" t="s">
         <v>43</v>
@@ -6277,7 +6283,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I207" t="s">
         <v>43</v>
@@ -6297,7 +6303,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I208" t="s">
         <v>43</v>
@@ -6317,7 +6323,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I209" t="s">
         <v>43</v>
@@ -6337,7 +6343,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I210" t="s">
         <v>43</v>
@@ -6357,7 +6363,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I211" t="s">
         <v>43</v>
@@ -6377,7 +6383,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I212" t="s">
         <v>43</v>
@@ -6397,7 +6403,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I213" t="s">
         <v>43</v>
@@ -6417,7 +6423,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I214" t="s">
         <v>43</v>
@@ -6437,7 +6443,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I215" t="s">
         <v>43</v>
@@ -6457,7 +6463,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I216" t="s">
         <v>43</v>
@@ -6477,7 +6483,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I217" t="s">
         <v>43</v>
@@ -6497,7 +6503,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I218" t="s">
         <v>43</v>
@@ -6517,7 +6523,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I219" t="s">
         <v>43</v>
@@ -6537,7 +6543,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I220" t="s">
         <v>43</v>
@@ -6557,7 +6563,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I221" t="s">
         <v>43</v>
@@ -6577,7 +6583,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I222" t="s">
         <v>43</v>
@@ -6597,7 +6603,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I223" t="s">
         <v>43</v>
@@ -6617,7 +6623,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I224" t="s">
         <v>43</v>
@@ -6637,22 +6643,10 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2018</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
-      </c>
-      <c r="H225" t="s">
-        <v>57</v>
+        <v>2017</v>
       </c>
       <c r="I225" t="s">
         <v>43</v>
-      </c>
-      <c r="J225" t="s">
-        <v>55</v>
-      </c>
-      <c r="L225" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6669,10 +6663,22 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226" t="s">
+        <v>57</v>
       </c>
       <c r="I226" t="s">
         <v>43</v>
+      </c>
+      <c r="J226" t="s">
+        <v>55</v>
+      </c>
+      <c r="L226" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6683,28 +6689,16 @@
         <v>41</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
         <v>39</v>
       </c>
       <c r="E227">
-        <v>1990</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>59</v>
+        <v>2019</v>
       </c>
       <c r="I227" t="s">
         <v>43</v>
-      </c>
-      <c r="J227" t="s">
-        <v>60</v>
-      </c>
-      <c r="L227" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6721,7 +6715,7 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6753,7 +6747,7 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -6785,7 +6779,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6817,7 +6811,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6849,7 +6843,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6881,7 +6875,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6913,7 +6907,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6945,7 +6939,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6977,7 +6971,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -7009,7 +7003,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -7041,7 +7035,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7073,7 +7067,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7105,7 +7099,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7137,7 +7131,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7169,7 +7163,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7201,7 +7195,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7233,7 +7227,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7265,7 +7259,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7297,7 +7291,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7329,7 +7323,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7361,7 +7355,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7393,7 +7387,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7425,7 +7419,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7457,7 +7451,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7489,7 +7483,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7521,7 +7515,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7553,7 +7547,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7585,7 +7579,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7617,7 +7611,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7635,7 +7629,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>16</v>
       </c>
@@ -7643,22 +7637,31 @@
         <v>41</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D257" t="s">
         <v>39</v>
       </c>
       <c r="E257">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>59</v>
       </c>
       <c r="I257" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J257" t="s">
+        <v>60</v>
+      </c>
+      <c r="L257" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>16</v>
       </c>
@@ -7672,19 +7675,16 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G258">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="I258" t="s">
         <v>43</v>
       </c>
-      <c r="J258" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>16</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G259">
         <v>0.15</v>
@@ -7710,7 +7710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>16</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G260">
         <v>0.15</v>
@@ -7736,7 +7736,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G261">
         <v>0.15</v>
@@ -7762,7 +7762,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G262">
         <v>0.15</v>
@@ -7788,7 +7788,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>16</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G263">
         <v>0.15</v>
@@ -7814,7 +7814,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>16</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G264">
         <v>0.15</v>
@@ -7840,7 +7840,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -7854,7 +7854,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G265">
         <v>0.15</v>
@@ -7866,7 +7866,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>16</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G266">
         <v>0.15</v>
@@ -7892,7 +7892,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G267">
         <v>0.15</v>
@@ -7918,7 +7918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G268">
         <v>0.15</v>
@@ -7944,7 +7944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G269">
         <v>0.15</v>
@@ -7970,7 +7970,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G270">
         <v>0.15</v>
@@ -7996,7 +7996,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G271">
         <v>0.15</v>
@@ -8022,7 +8022,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G272">
         <v>0.15</v>
@@ -8062,7 +8062,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G273">
         <v>0.15</v>
@@ -8088,7 +8088,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G274">
         <v>0.15</v>
@@ -8114,7 +8114,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G275">
         <v>0.15</v>
@@ -8140,7 +8140,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G276">
         <v>0.15</v>
@@ -8166,7 +8166,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G277">
         <v>0.15</v>
@@ -8192,7 +8192,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G278">
         <v>0.15</v>
@@ -8218,7 +8218,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G279">
         <v>0.15</v>
@@ -8244,7 +8244,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G280">
         <v>0.15</v>
@@ -8270,7 +8270,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G281">
         <v>0.15</v>
@@ -8296,7 +8296,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G282">
         <v>0.15</v>
@@ -8322,7 +8322,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G283">
         <v>0.15</v>
@@ -8348,7 +8348,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G284">
         <v>0.15</v>
@@ -8374,7 +8374,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G285">
         <v>0.15</v>
@@ -8400,7 +8400,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G286">
         <v>0.15</v>
@@ -8420,22 +8420,22 @@
         <v>41</v>
       </c>
       <c r="C287" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D287" t="s">
         <v>39</v>
       </c>
       <c r="E287">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I287" t="s">
         <v>43</v>
       </c>
       <c r="J287" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
@@ -8452,13 +8452,16 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G288">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="s">
         <v>43</v>
+      </c>
+      <c r="J288" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
@@ -8475,7 +8478,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G289">
         <v>1E-3</v>
@@ -8498,7 +8501,7 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G290">
         <v>1E-3</v>
@@ -8521,7 +8524,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G291">
         <v>1E-3</v>
@@ -8544,7 +8547,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G292">
         <v>1E-3</v>
@@ -8567,7 +8570,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G293">
         <v>1E-3</v>
@@ -8590,7 +8593,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G294">
         <v>1E-3</v>
@@ -8613,7 +8616,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G295">
         <v>1E-3</v>
@@ -8636,7 +8639,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G296">
         <v>1E-3</v>
@@ -8659,7 +8662,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G297">
         <v>1E-3</v>
@@ -8682,7 +8685,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G298">
         <v>1E-3</v>
@@ -8705,7 +8708,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G299">
         <v>1E-3</v>
@@ -8728,7 +8731,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G300">
         <v>1E-3</v>
@@ -8751,7 +8754,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G301">
         <v>1E-3</v>
@@ -8774,7 +8777,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G302">
         <v>1E-3</v>
@@ -8797,7 +8800,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G303">
         <v>1E-3</v>
@@ -8820,7 +8823,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G304">
         <v>1E-3</v>
@@ -8843,7 +8846,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G305">
         <v>1E-3</v>
@@ -8866,7 +8869,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G306">
         <v>1E-3</v>
@@ -8889,7 +8892,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G307">
         <v>1E-3</v>
@@ -8912,7 +8915,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G308">
         <v>1E-3</v>
@@ -8935,7 +8938,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G309">
         <v>1E-3</v>
@@ -8958,7 +8961,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G310">
         <v>1E-3</v>
@@ -8981,7 +8984,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G311">
         <v>1E-3</v>
@@ -9004,7 +9007,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G312">
         <v>1E-3</v>
@@ -9027,7 +9030,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G313">
         <v>1E-3</v>
@@ -9050,7 +9053,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G314">
         <v>1E-3</v>
@@ -9073,7 +9076,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G315">
         <v>1E-3</v>
@@ -9096,7 +9099,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G316">
         <v>1E-3</v>
@@ -9105,11 +9108,34 @@
         <v>43</v>
       </c>
     </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K429" s="2"/>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" t="s">
+        <v>41</v>
+      </c>
+      <c r="C317" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317" t="s">
+        <v>39</v>
+      </c>
+      <c r="E317">
+        <v>2019</v>
+      </c>
+      <c r="G317">
+        <v>1E-3</v>
+      </c>
+      <c r="I317" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K430" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L849" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_biomass.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_biomass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E0716B-7D40-7F44-9FF5-12D7F3DC4084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D0A321-263C-B34C-B9E6-047B8C4B22E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="80">
   <si>
     <t>Name:</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>GW/TWh</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
   </si>
 </sst>
 </file>
@@ -685,11 +694,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L430"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -791,16 +800,16 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
       </c>
       <c r="G7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -812,20 +821,18 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
       </c>
       <c r="G8">
-        <v>0.9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -835,23 +842,18 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" t="s">
-        <v>52</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -861,16 +863,19 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
+        <v>0.9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -880,19 +885,24 @@
       <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -901,19 +911,18 @@
       <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
+      <c r="C12" t="s">
+        <v>75</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -923,22 +932,16 @@
         <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -950,22 +953,16 @@
         <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>57.6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>69</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I14" t="s">
         <v>43</v>
-      </c>
-      <c r="J14" t="s">
-        <v>70</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -977,19 +974,22 @@
         <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="I15" t="s">
         <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
       </c>
       <c r="K15" s="2"/>
     </row>
@@ -1001,20 +1001,24 @@
         <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>0.88</v>
+        <v>57.6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
       </c>
       <c r="I16" t="s">
         <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1024,19 +1028,19 @@
         <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="G17">
-        <v>0.6</v>
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
       </c>
       <c r="I17" t="s">
         <v>43</v>
-      </c>
-      <c r="J17" t="s">
-        <v>73</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1047,29 +1051,20 @@
       <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G18">
-        <v>6</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
+        <v>0.88</v>
       </c>
       <c r="I18" t="s">
         <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1079,30 +1074,22 @@
       <c r="B19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>1991</v>
+        <v>38</v>
       </c>
       <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="H19" t="s">
-        <v>42</v>
+        <v>0.6</v>
       </c>
       <c r="I19" t="s">
         <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" t="s">
-        <v>45</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1118,10 +1105,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G20">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
         <v>42</v>
@@ -1150,10 +1137,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
         <v>42</v>
@@ -1182,10 +1169,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22" t="s">
         <v>42</v>
@@ -1214,10 +1201,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23" t="s">
         <v>42</v>
@@ -1246,10 +1233,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
         <v>42</v>
@@ -1278,10 +1265,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" t="s">
         <v>42</v>
@@ -1310,10 +1297,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
         <v>42</v>
@@ -1342,10 +1329,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
         <v>42</v>
@@ -1374,10 +1361,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
         <v>42</v>
@@ -1406,10 +1393,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
         <v>42</v>
@@ -1438,10 +1425,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G30">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
         <v>42</v>
@@ -1470,10 +1457,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G31">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
         <v>42</v>
@@ -1502,10 +1489,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G32">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
         <v>42</v>
@@ -1534,10 +1521,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G33">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
         <v>42</v>
@@ -1566,10 +1553,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G34">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H34" t="s">
         <v>42</v>
@@ -1598,10 +1585,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G35">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="H35" t="s">
         <v>42</v>
@@ -1630,10 +1617,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G36">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="H36" t="s">
         <v>42</v>
@@ -1662,10 +1649,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G37">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s">
         <v>42</v>
@@ -1694,10 +1681,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G38">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H38" t="s">
         <v>42</v>
@@ -1726,10 +1713,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G39">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="H39" t="s">
         <v>42</v>
@@ -1758,10 +1745,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G40">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="H40" t="s">
         <v>42</v>
@@ -1790,10 +1777,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G41">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="H41" t="s">
         <v>42</v>
@@ -1822,10 +1809,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G42">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="H42" t="s">
         <v>42</v>
@@ -1854,10 +1841,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G43">
-        <v>184</v>
+        <v>278</v>
       </c>
       <c r="H43" t="s">
         <v>42</v>
@@ -1886,10 +1873,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G44">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="H44" t="s">
         <v>42</v>
@@ -1918,10 +1905,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G45">
-        <v>322</v>
+        <v>184</v>
       </c>
       <c r="H45" t="s">
         <v>42</v>
@@ -1950,10 +1937,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G46">
-        <v>290</v>
+        <v>223</v>
       </c>
       <c r="H46" t="s">
         <v>42</v>
@@ -1982,10 +1969,10 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G47">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="H47" t="s">
         <v>42</v>
@@ -2008,25 +1995,28 @@
         <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G48">
-        <v>3480</v>
+        <v>290</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I48" t="s">
         <v>43</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="L48" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2037,25 +2027,28 @@
         <v>41</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G49">
-        <v>3480</v>
+        <v>313</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I49" t="s">
         <v>43</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="L49" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2072,7 +2065,7 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G50">
         <v>3480</v>
@@ -2101,7 +2094,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G51">
         <v>3480</v>
@@ -2130,7 +2123,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G52">
         <v>3480</v>
@@ -2159,7 +2152,7 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G53">
         <v>3480</v>
@@ -2171,10 +2164,7 @@
         <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
-      </c>
-      <c r="L53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2191,10 +2181,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G54">
-        <v>11180</v>
+        <v>3480</v>
       </c>
       <c r="H54" t="s">
         <v>46</v>
@@ -2203,10 +2193,7 @@
         <v>43</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
-      </c>
-      <c r="L54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2223,10 +2210,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G55">
-        <v>13900</v>
+        <v>3480</v>
       </c>
       <c r="H55" t="s">
         <v>46</v>
@@ -2255,10 +2242,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G56">
-        <v>15650</v>
+        <v>11180</v>
       </c>
       <c r="H56" t="s">
         <v>46</v>
@@ -2287,10 +2274,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G57">
-        <v>15650</v>
+        <v>13900</v>
       </c>
       <c r="H57" t="s">
         <v>46</v>
@@ -2319,7 +2306,7 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G58">
         <v>15650</v>
@@ -2351,10 +2338,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G59">
-        <v>15550</v>
+        <v>15650</v>
       </c>
       <c r="H59" t="s">
         <v>46</v>
@@ -2383,10 +2370,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G60">
-        <v>9876</v>
+        <v>15650</v>
       </c>
       <c r="H60" t="s">
         <v>46</v>
@@ -2415,10 +2402,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G61">
-        <v>10211</v>
+        <v>15550</v>
       </c>
       <c r="H61" t="s">
         <v>46</v>
@@ -2447,10 +2434,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G62">
-        <v>10272</v>
+        <v>9876</v>
       </c>
       <c r="H62" t="s">
         <v>46</v>
@@ -2479,10 +2466,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G63">
-        <v>10139</v>
+        <v>10211</v>
       </c>
       <c r="H63" t="s">
         <v>46</v>
@@ -2511,10 +2498,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G64">
-        <v>15877</v>
+        <v>10272</v>
       </c>
       <c r="H64" t="s">
         <v>46</v>
@@ -2543,10 +2530,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G65">
-        <v>54394</v>
+        <v>10139</v>
       </c>
       <c r="H65" t="s">
         <v>46</v>
@@ -2575,10 +2562,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G66">
-        <v>116972</v>
+        <v>15877</v>
       </c>
       <c r="H66" t="s">
         <v>46</v>
@@ -2607,10 +2594,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G67">
-        <v>116972</v>
+        <v>54394</v>
       </c>
       <c r="H67" t="s">
         <v>46</v>
@@ -2639,10 +2626,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G68">
-        <v>191385</v>
+        <v>116972</v>
       </c>
       <c r="H68" t="s">
         <v>46</v>
@@ -2671,10 +2658,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G69">
-        <v>191385</v>
+        <v>116972</v>
       </c>
       <c r="H69" t="s">
         <v>46</v>
@@ -2703,10 +2690,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G70">
-        <v>221385</v>
+        <v>191385</v>
       </c>
       <c r="H70" t="s">
         <v>46</v>
@@ -2735,10 +2722,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G71">
-        <v>222385</v>
+        <v>191385</v>
       </c>
       <c r="H71" t="s">
         <v>46</v>
@@ -2767,10 +2754,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G72">
-        <v>222385</v>
+        <v>221385</v>
       </c>
       <c r="H72" t="s">
         <v>46</v>
@@ -2799,10 +2786,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G73">
-        <v>227635</v>
+        <v>222385</v>
       </c>
       <c r="H73" t="s">
         <v>46</v>
@@ -2831,10 +2818,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G74">
-        <v>214635</v>
+        <v>222385</v>
       </c>
       <c r="H74" t="s">
         <v>46</v>
@@ -2863,10 +2850,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G75">
-        <v>220985</v>
+        <v>227635</v>
       </c>
       <c r="H75" t="s">
         <v>46</v>
@@ -2895,10 +2882,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G76">
-        <v>226782</v>
+        <v>214635</v>
       </c>
       <c r="H76" t="s">
         <v>46</v>
@@ -2927,10 +2914,10 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G77">
-        <v>263892</v>
+        <v>220985</v>
       </c>
       <c r="H77" t="s">
         <v>46</v>
@@ -2953,16 +2940,16 @@
         <v>41</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>226782</v>
       </c>
       <c r="H78" t="s">
         <v>46</v>
@@ -2974,7 +2961,7 @@
         <v>48</v>
       </c>
       <c r="L78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2985,16 +2972,16 @@
         <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>263892</v>
       </c>
       <c r="H79" t="s">
         <v>46</v>
@@ -3006,7 +2993,7 @@
         <v>48</v>
       </c>
       <c r="L79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3023,7 +3010,7 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3055,7 +3042,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3087,7 +3074,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3119,10 +3106,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G83">
-        <v>3480</v>
+        <v>0</v>
       </c>
       <c r="H83" t="s">
         <v>46</v>
@@ -3151,10 +3138,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G84">
-        <v>7700</v>
+        <v>0</v>
       </c>
       <c r="H84" t="s">
         <v>46</v>
@@ -3183,10 +3170,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G85">
-        <v>2720</v>
+        <v>3480</v>
       </c>
       <c r="H85" t="s">
         <v>46</v>
@@ -3215,10 +3202,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G86">
-        <v>1750</v>
+        <v>7700</v>
       </c>
       <c r="H86" t="s">
         <v>46</v>
@@ -3247,10 +3234,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>2720</v>
       </c>
       <c r="H87" t="s">
         <v>46</v>
@@ -3279,10 +3266,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="H88" t="s">
         <v>46</v>
@@ -3311,7 +3298,7 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3343,7 +3330,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3375,10 +3362,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G91">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
         <v>46</v>
@@ -3407,10 +3394,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G92">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="H92" t="s">
         <v>46</v>
@@ -3439,10 +3426,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="H93" t="s">
         <v>46</v>
@@ -3471,10 +3458,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G94">
-        <v>5738</v>
+        <v>61</v>
       </c>
       <c r="H94" t="s">
         <v>46</v>
@@ -3503,10 +3490,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G95">
-        <v>38517</v>
+        <v>0</v>
       </c>
       <c r="H95" t="s">
         <v>46</v>
@@ -3535,10 +3522,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G96">
-        <v>62578</v>
+        <v>5738</v>
       </c>
       <c r="H96" t="s">
         <v>46</v>
@@ -3567,10 +3554,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>38517</v>
       </c>
       <c r="H97" t="s">
         <v>46</v>
@@ -3599,10 +3586,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G98">
-        <v>74413</v>
+        <v>62578</v>
       </c>
       <c r="H98" t="s">
         <v>46</v>
@@ -3631,7 +3618,7 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3663,10 +3650,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G100">
-        <v>30000</v>
+        <v>74413</v>
       </c>
       <c r="H100" t="s">
         <v>46</v>
@@ -3695,10 +3682,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G101">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H101" t="s">
         <v>46</v>
@@ -3727,10 +3714,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H102" t="s">
         <v>46</v>
@@ -3759,10 +3746,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G103">
-        <v>5250</v>
+        <v>1000</v>
       </c>
       <c r="H103" t="s">
         <v>46</v>
@@ -3791,7 +3778,7 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3823,10 +3810,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G105">
-        <v>6350</v>
+        <v>5250</v>
       </c>
       <c r="H105" t="s">
         <v>46</v>
@@ -3855,10 +3842,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G106">
-        <v>5797</v>
+        <v>0</v>
       </c>
       <c r="H106" t="s">
         <v>46</v>
@@ -3887,10 +3874,10 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G107">
-        <v>37110</v>
+        <v>6350</v>
       </c>
       <c r="H107" t="s">
         <v>46</v>
@@ -3913,16 +3900,16 @@
         <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>5797</v>
       </c>
       <c r="H108" t="s">
         <v>46</v>
@@ -3945,16 +3932,16 @@
         <v>41</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>37110</v>
       </c>
       <c r="H109" t="s">
         <v>46</v>
@@ -3983,7 +3970,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -4015,7 +4002,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -4047,7 +4034,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -4079,7 +4066,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4111,7 +4098,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4143,7 +4130,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4175,7 +4162,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4207,7 +4194,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4239,7 +4226,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4271,10 +4258,10 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G119">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H119" t="s">
         <v>46</v>
@@ -4303,10 +4290,10 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G120">
-        <v>5674</v>
+        <v>0</v>
       </c>
       <c r="H120" t="s">
         <v>46</v>
@@ -4335,10 +4322,10 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H121" t="s">
         <v>46</v>
@@ -4367,10 +4354,10 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>5674</v>
       </c>
       <c r="H122" t="s">
         <v>46</v>
@@ -4399,10 +4386,10 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G123">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="H123" t="s">
         <v>46</v>
@@ -4431,7 +4418,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4463,10 +4450,10 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="H125" t="s">
         <v>46</v>
@@ -4495,7 +4482,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4527,7 +4514,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4559,7 +4546,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4591,7 +4578,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4623,7 +4610,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4655,7 +4642,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4687,7 +4674,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4719,7 +4706,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4751,10 +4738,10 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G134">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="H134" t="s">
         <v>46</v>
@@ -4783,7 +4770,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4815,10 +4802,10 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="H136" t="s">
         <v>46</v>
@@ -4847,7 +4834,7 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4873,16 +4860,28 @@
         <v>41</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>46</v>
       </c>
       <c r="I138" t="s">
         <v>43</v>
+      </c>
+      <c r="J138" t="s">
+        <v>48</v>
+      </c>
+      <c r="L138" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4893,16 +4892,28 @@
         <v>41</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>46</v>
       </c>
       <c r="I139" t="s">
         <v>43</v>
+      </c>
+      <c r="J139" t="s">
+        <v>48</v>
+      </c>
+      <c r="L139" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4919,7 +4930,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I140" t="s">
         <v>43</v>
@@ -4939,7 +4950,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I141" t="s">
         <v>43</v>
@@ -4959,7 +4970,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I142" t="s">
         <v>43</v>
@@ -4979,7 +4990,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I143" t="s">
         <v>43</v>
@@ -4999,7 +5010,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I144" t="s">
         <v>43</v>
@@ -5019,7 +5030,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I145" t="s">
         <v>43</v>
@@ -5039,7 +5050,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I146" t="s">
         <v>43</v>
@@ -5059,7 +5070,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I147" t="s">
         <v>43</v>
@@ -5079,7 +5090,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I148" t="s">
         <v>43</v>
@@ -5099,7 +5110,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I149" t="s">
         <v>43</v>
@@ -5119,7 +5130,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I150" t="s">
         <v>43</v>
@@ -5139,7 +5150,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I151" t="s">
         <v>43</v>
@@ -5159,7 +5170,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I152" t="s">
         <v>43</v>
@@ -5179,7 +5190,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I153" t="s">
         <v>43</v>
@@ -5199,7 +5210,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I154" t="s">
         <v>43</v>
@@ -5219,7 +5230,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I155" t="s">
         <v>43</v>
@@ -5239,7 +5250,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I156" t="s">
         <v>43</v>
@@ -5259,7 +5270,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I157" t="s">
         <v>43</v>
@@ -5279,7 +5290,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I158" t="s">
         <v>43</v>
@@ -5299,7 +5310,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I159" t="s">
         <v>43</v>
@@ -5319,7 +5330,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I160" t="s">
         <v>43</v>
@@ -5339,7 +5350,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I161" t="s">
         <v>43</v>
@@ -5359,7 +5370,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I162" t="s">
         <v>43</v>
@@ -5379,7 +5390,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I163" t="s">
         <v>43</v>
@@ -5399,7 +5410,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I164" t="s">
         <v>43</v>
@@ -5419,7 +5430,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I165" t="s">
         <v>43</v>
@@ -5439,22 +5450,10 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2018</v>
-      </c>
-      <c r="G166">
-        <v>500</v>
-      </c>
-      <c r="H166" t="s">
-        <v>54</v>
+        <v>2016</v>
       </c>
       <c r="I166" t="s">
         <v>43</v>
-      </c>
-      <c r="J166" t="s">
-        <v>55</v>
-      </c>
-      <c r="L166" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5471,7 +5470,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I167" t="s">
         <v>43</v>
@@ -5485,16 +5484,28 @@
         <v>41</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G168">
+        <v>500</v>
+      </c>
+      <c r="H168" t="s">
+        <v>54</v>
       </c>
       <c r="I168" t="s">
         <v>43</v>
+      </c>
+      <c r="J168" t="s">
+        <v>55</v>
+      </c>
+      <c r="L168" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5505,13 +5516,13 @@
         <v>41</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I169" t="s">
         <v>43</v>
@@ -5531,7 +5542,7 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I170" t="s">
         <v>43</v>
@@ -5551,7 +5562,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I171" t="s">
         <v>43</v>
@@ -5571,7 +5582,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I172" t="s">
         <v>43</v>
@@ -5591,7 +5602,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I173" t="s">
         <v>43</v>
@@ -5611,7 +5622,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I174" t="s">
         <v>43</v>
@@ -5631,7 +5642,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I175" t="s">
         <v>43</v>
@@ -5651,7 +5662,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I176" t="s">
         <v>43</v>
@@ -5671,7 +5682,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I177" t="s">
         <v>43</v>
@@ -5691,7 +5702,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I178" t="s">
         <v>43</v>
@@ -5711,7 +5722,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I179" t="s">
         <v>43</v>
@@ -5731,7 +5742,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I180" t="s">
         <v>43</v>
@@ -5751,7 +5762,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I181" t="s">
         <v>43</v>
@@ -5771,7 +5782,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I182" t="s">
         <v>43</v>
@@ -5791,7 +5802,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I183" t="s">
         <v>43</v>
@@ -5811,7 +5822,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I184" t="s">
         <v>43</v>
@@ -5831,7 +5842,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I185" t="s">
         <v>43</v>
@@ -5851,7 +5862,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I186" t="s">
         <v>43</v>
@@ -5871,7 +5882,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I187" t="s">
         <v>43</v>
@@ -5891,7 +5902,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I188" t="s">
         <v>43</v>
@@ -5911,7 +5922,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I189" t="s">
         <v>43</v>
@@ -5931,7 +5942,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I190" t="s">
         <v>43</v>
@@ -5951,7 +5962,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I191" t="s">
         <v>43</v>
@@ -5971,7 +5982,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I192" t="s">
         <v>43</v>
@@ -5991,7 +6002,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I193" t="s">
         <v>43</v>
@@ -6011,7 +6022,7 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I194" t="s">
         <v>43</v>
@@ -6031,7 +6042,7 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I195" t="s">
         <v>43</v>
@@ -6051,22 +6062,10 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2018</v>
-      </c>
-      <c r="G196">
-        <v>4444</v>
-      </c>
-      <c r="H196" t="s">
-        <v>54</v>
+        <v>2016</v>
       </c>
       <c r="I196" t="s">
         <v>43</v>
-      </c>
-      <c r="J196" t="s">
-        <v>55</v>
-      </c>
-      <c r="L196" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -6083,7 +6082,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I197" t="s">
         <v>43</v>
@@ -6097,16 +6096,28 @@
         <v>41</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G198">
+        <v>4444</v>
+      </c>
+      <c r="H198" t="s">
+        <v>54</v>
       </c>
       <c r="I198" t="s">
         <v>43</v>
+      </c>
+      <c r="J198" t="s">
+        <v>55</v>
+      </c>
+      <c r="L198" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -6117,13 +6128,13 @@
         <v>41</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="I199" t="s">
         <v>43</v>
@@ -6143,7 +6154,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I200" t="s">
         <v>43</v>
@@ -6163,7 +6174,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I201" t="s">
         <v>43</v>
@@ -6183,7 +6194,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I202" t="s">
         <v>43</v>
@@ -6203,7 +6214,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I203" t="s">
         <v>43</v>
@@ -6223,7 +6234,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I204" t="s">
         <v>43</v>
@@ -6243,7 +6254,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I205" t="s">
         <v>43</v>
@@ -6263,7 +6274,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I206" t="s">
         <v>43</v>
@@ -6283,7 +6294,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I207" t="s">
         <v>43</v>
@@ -6303,7 +6314,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I208" t="s">
         <v>43</v>
@@ -6323,7 +6334,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I209" t="s">
         <v>43</v>
@@ -6343,7 +6354,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I210" t="s">
         <v>43</v>
@@ -6363,7 +6374,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I211" t="s">
         <v>43</v>
@@ -6383,7 +6394,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I212" t="s">
         <v>43</v>
@@ -6403,7 +6414,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I213" t="s">
         <v>43</v>
@@ -6423,7 +6434,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I214" t="s">
         <v>43</v>
@@ -6443,7 +6454,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I215" t="s">
         <v>43</v>
@@ -6463,7 +6474,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I216" t="s">
         <v>43</v>
@@ -6483,7 +6494,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I217" t="s">
         <v>43</v>
@@ -6503,7 +6514,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I218" t="s">
         <v>43</v>
@@ -6523,7 +6534,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I219" t="s">
         <v>43</v>
@@ -6543,7 +6554,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I220" t="s">
         <v>43</v>
@@ -6563,7 +6574,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I221" t="s">
         <v>43</v>
@@ -6583,7 +6594,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I222" t="s">
         <v>43</v>
@@ -6603,7 +6614,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I223" t="s">
         <v>43</v>
@@ -6623,7 +6634,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I224" t="s">
         <v>43</v>
@@ -6643,7 +6654,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I225" t="s">
         <v>43</v>
@@ -6663,22 +6674,10 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2018</v>
-      </c>
-      <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="H226" t="s">
-        <v>57</v>
+        <v>2016</v>
       </c>
       <c r="I226" t="s">
         <v>43</v>
-      </c>
-      <c r="J226" t="s">
-        <v>55</v>
-      </c>
-      <c r="L226" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6695,7 +6694,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I227" t="s">
         <v>43</v>
@@ -6709,28 +6708,28 @@
         <v>41</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G228">
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I228" t="s">
         <v>43</v>
       </c>
       <c r="J228" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L228" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6741,28 +6740,16 @@
         <v>41</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1991</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229" t="s">
-        <v>59</v>
+        <v>2019</v>
       </c>
       <c r="I229" t="s">
         <v>43</v>
-      </c>
-      <c r="J229" t="s">
-        <v>60</v>
-      </c>
-      <c r="L229" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -6779,7 +6766,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -6811,7 +6798,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6843,7 +6830,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6875,7 +6862,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6907,7 +6894,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6939,7 +6926,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6971,7 +6958,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -7003,7 +6990,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -7035,7 +7022,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7067,7 +7054,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7099,7 +7086,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7131,7 +7118,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7163,7 +7150,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7195,7 +7182,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7227,7 +7214,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7259,7 +7246,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7291,7 +7278,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7323,7 +7310,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7355,7 +7342,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7387,7 +7374,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7419,7 +7406,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7451,7 +7438,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7483,7 +7470,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7515,7 +7502,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7547,7 +7534,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7579,7 +7566,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7611,7 +7598,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7643,7 +7630,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7669,19 +7656,28 @@
         <v>41</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>59</v>
       </c>
       <c r="I258" t="s">
         <v>43</v>
+      </c>
+      <c r="J258" t="s">
+        <v>60</v>
+      </c>
+      <c r="L258" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7692,22 +7688,28 @@
         <v>41</v>
       </c>
       <c r="C259" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G259">
-        <v>0.15</v>
+        <v>0</v>
+      </c>
+      <c r="H259" t="s">
+        <v>59</v>
       </c>
       <c r="I259" t="s">
         <v>43</v>
       </c>
       <c r="J259" t="s">
-        <v>71</v>
+        <v>60</v>
+      </c>
+      <c r="L259" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7724,16 +7726,13 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G260">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="I260" t="s">
         <v>43</v>
-      </c>
-      <c r="J260" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7750,7 +7749,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G261">
         <v>0.15</v>
@@ -7776,7 +7775,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G262">
         <v>0.15</v>
@@ -7802,7 +7801,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G263">
         <v>0.15</v>
@@ -7828,7 +7827,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G264">
         <v>0.15</v>
@@ -7854,7 +7853,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G265">
         <v>0.15</v>
@@ -7880,7 +7879,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G266">
         <v>0.15</v>
@@ -7906,7 +7905,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G267">
         <v>0.15</v>
@@ -7932,7 +7931,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G268">
         <v>0.15</v>
@@ -7958,7 +7957,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G269">
         <v>0.15</v>
@@ -7984,7 +7983,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G270">
         <v>0.15</v>
@@ -8010,7 +8009,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G271">
         <v>0.15</v>
@@ -8036,7 +8035,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G272">
         <v>0.15</v>
@@ -8062,7 +8061,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G273">
         <v>0.15</v>
@@ -8088,7 +8087,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G274">
         <v>0.15</v>
@@ -8114,7 +8113,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G275">
         <v>0.15</v>
@@ -8140,7 +8139,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G276">
         <v>0.15</v>
@@ -8166,7 +8165,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G277">
         <v>0.15</v>
@@ -8192,7 +8191,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G278">
         <v>0.15</v>
@@ -8218,7 +8217,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G279">
         <v>0.15</v>
@@ -8244,7 +8243,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G280">
         <v>0.15</v>
@@ -8270,7 +8269,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G281">
         <v>0.15</v>
@@ -8296,7 +8295,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G282">
         <v>0.15</v>
@@ -8322,7 +8321,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G283">
         <v>0.15</v>
@@ -8348,7 +8347,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G284">
         <v>0.15</v>
@@ -8374,7 +8373,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G285">
         <v>0.15</v>
@@ -8400,7 +8399,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G286">
         <v>0.15</v>
@@ -8426,7 +8425,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G287">
         <v>0.15</v>
@@ -8446,25 +8445,25 @@
         <v>41</v>
       </c>
       <c r="C288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D288" t="s">
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I288" t="s">
         <v>43</v>
       </c>
       <c r="J288" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>16</v>
       </c>
@@ -8472,22 +8471,25 @@
         <v>41</v>
       </c>
       <c r="C289" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D289" t="s">
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G289">
-        <v>1E-3</v>
+        <v>0.15</v>
       </c>
       <c r="I289" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J289" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>16</v>
       </c>
@@ -8501,16 +8503,19 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G290">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J290" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>16</v>
       </c>
@@ -8524,7 +8529,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G291">
         <v>1E-3</v>
@@ -8533,7 +8538,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>16</v>
       </c>
@@ -8547,7 +8552,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G292">
         <v>1E-3</v>
@@ -8556,7 +8561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>16</v>
       </c>
@@ -8570,7 +8575,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G293">
         <v>1E-3</v>
@@ -8579,7 +8584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>16</v>
       </c>
@@ -8593,7 +8598,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G294">
         <v>1E-3</v>
@@ -8602,7 +8607,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -8616,7 +8621,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G295">
         <v>1E-3</v>
@@ -8625,7 +8630,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>16</v>
       </c>
@@ -8639,7 +8644,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G296">
         <v>1E-3</v>
@@ -8648,7 +8653,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>16</v>
       </c>
@@ -8662,7 +8667,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G297">
         <v>1E-3</v>
@@ -8671,7 +8676,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>16</v>
       </c>
@@ -8685,7 +8690,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G298">
         <v>1E-3</v>
@@ -8694,7 +8699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>16</v>
       </c>
@@ -8708,7 +8713,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G299">
         <v>1E-3</v>
@@ -8717,7 +8722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>16</v>
       </c>
@@ -8731,7 +8736,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G300">
         <v>1E-3</v>
@@ -8740,7 +8745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>16</v>
       </c>
@@ -8754,7 +8759,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G301">
         <v>1E-3</v>
@@ -8763,7 +8768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>16</v>
       </c>
@@ -8777,7 +8782,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G302">
         <v>1E-3</v>
@@ -8786,7 +8791,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>16</v>
       </c>
@@ -8800,7 +8805,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G303">
         <v>1E-3</v>
@@ -8809,7 +8814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>16</v>
       </c>
@@ -8823,7 +8828,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G304">
         <v>1E-3</v>
@@ -8846,7 +8851,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G305">
         <v>1E-3</v>
@@ -8869,7 +8874,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G306">
         <v>1E-3</v>
@@ -8892,7 +8897,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G307">
         <v>1E-3</v>
@@ -8915,7 +8920,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G308">
         <v>1E-3</v>
@@ -8938,7 +8943,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G309">
         <v>1E-3</v>
@@ -8961,7 +8966,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G310">
         <v>1E-3</v>
@@ -8984,7 +8989,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G311">
         <v>1E-3</v>
@@ -9007,7 +9012,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G312">
         <v>1E-3</v>
@@ -9030,7 +9035,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G313">
         <v>1E-3</v>
@@ -9053,7 +9058,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G314">
         <v>1E-3</v>
@@ -9076,7 +9081,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G315">
         <v>1E-3</v>
@@ -9099,7 +9104,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G316">
         <v>1E-3</v>
@@ -9122,7 +9127,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G317">
         <v>1E-3</v>
@@ -9131,11 +9136,57 @@
         <v>43</v>
       </c>
     </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K430" s="2"/>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>41</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>39</v>
+      </c>
+      <c r="E318">
+        <v>2018</v>
+      </c>
+      <c r="G318">
+        <v>1E-3</v>
+      </c>
+      <c r="I318" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" t="s">
+        <v>41</v>
+      </c>
+      <c r="C319" t="s">
+        <v>29</v>
+      </c>
+      <c r="D319" t="s">
+        <v>39</v>
+      </c>
+      <c r="E319">
+        <v>2019</v>
+      </c>
+      <c r="G319">
+        <v>1E-3</v>
+      </c>
+      <c r="I319" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K432" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/chp/CHE_convchp_biomass.xlsx
+++ b/data/zenodo_ivan/conversion/chp/CHE_convchp_biomass.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D0A321-263C-B34C-B9E6-047B8C4B22E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D407BA-55FA-6947-BC1E-BFC9D7D93EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="81">
   <si>
     <t>Name:</t>
   </si>
@@ -263,9 +263,6 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>GW/TWh</t>
-  </si>
-  <si>
     <t>configuration_fxe</t>
   </si>
   <si>
@@ -273,6 +270,12 @@
   </si>
   <si>
     <t>output</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>Maximum energy production per capacity unit, per year.</t>
   </si>
 </sst>
 </file>
@@ -698,7 +701,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -800,10 +803,10 @@
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
         <v>64</v>
@@ -821,10 +824,10 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
@@ -918,10 +921,13 @@
         <v>38</v>
       </c>
       <c r="G12">
-        <v>1E-3</v>
+        <v>31.54</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="L12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
